--- a/eda/features.xlsx
+++ b/eda/features.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Desktop\W205_Final\W205_Project\eda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconner\Desktop\W205_Final\W205_Project\eda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Status!$A$1:$J$541</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Variable Library'!$A$1:$E$560</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="1425">
   <si>
     <t>Null Count</t>
   </si>
@@ -4816,16 +4816,16 @@
     SURPRISE_PCT_mad = df.groupby(['year-month'])[['SURPRISE_PCT']].apply(mad).any()</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Outliers</t>
+  </si>
+  <si>
+    <t>Sector Z-Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5004,6 +5004,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5039,6 +5056,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18231,9 +18265,9 @@
       <c r="A366" t="s">
         <v>506</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="str">
         <f>IFERROR(VLOOKUP(A366,Index!A:B,2,FALSE),"")</f>
-        <v>152</v>
+        <v/>
       </c>
       <c r="C366" t="str">
         <f>VLOOKUP(A366,'Variable Library'!A:D,3,FALSE)</f>
@@ -23709,9 +23743,9 @@
       <c r="A523" t="s">
         <v>379</v>
       </c>
-      <c r="B523">
+      <c r="B523" t="str">
         <f>IFERROR(VLOOKUP(A523,Index!A:B,2,FALSE),"")</f>
-        <v>187</v>
+        <v/>
       </c>
       <c r="C523" t="str">
         <f>VLOOKUP(A523,'Variable Library'!A:D,3,FALSE)</f>
@@ -23747,9 +23781,9 @@
       <c r="A524" t="s">
         <v>11</v>
       </c>
-      <c r="B524">
+      <c r="B524" t="str">
         <f>IFERROR(VLOOKUP(A524,Index!A:B,2,FALSE),"")</f>
-        <v>188</v>
+        <v/>
       </c>
       <c r="C524" t="str">
         <f>VLOOKUP(A524,'Variable Library'!A:D,3,FALSE)</f>
@@ -23785,9 +23819,9 @@
       <c r="A525" t="s">
         <v>10</v>
       </c>
-      <c r="B525">
+      <c r="B525" t="str">
         <f>IFERROR(VLOOKUP(A525,Index!A:B,2,FALSE),"")</f>
-        <v>189</v>
+        <v/>
       </c>
       <c r="C525" t="str">
         <f>VLOOKUP(A525,'Variable Library'!A:D,3,FALSE)</f>
@@ -23823,9 +23857,9 @@
       <c r="A526" t="s">
         <v>7</v>
       </c>
-      <c r="B526">
+      <c r="B526" t="str">
         <f>IFERROR(VLOOKUP(A526,Index!A:B,2,FALSE),"")</f>
-        <v>190</v>
+        <v/>
       </c>
       <c r="C526" t="str">
         <f>VLOOKUP(A526,'Variable Library'!A:D,3,FALSE)</f>
@@ -23861,9 +23895,9 @@
       <c r="A527" t="s">
         <v>6</v>
       </c>
-      <c r="B527">
+      <c r="B527" t="str">
         <f>IFERROR(VLOOKUP(A527,Index!A:B,2,FALSE),"")</f>
-        <v>191</v>
+        <v/>
       </c>
       <c r="C527" t="str">
         <f>VLOOKUP(A527,'Variable Library'!A:D,3,FALSE)</f>
@@ -23899,9 +23933,9 @@
       <c r="A528" t="s">
         <v>9</v>
       </c>
-      <c r="B528">
+      <c r="B528" t="str">
         <f>IFERROR(VLOOKUP(A528,Index!A:B,2,FALSE),"")</f>
-        <v>192</v>
+        <v/>
       </c>
       <c r="C528" t="str">
         <f>VLOOKUP(A528,'Variable Library'!A:D,3,FALSE)</f>
@@ -24406,8 +24440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E560"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33947,10 +33981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="U136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8:V173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33976,6 +34010,7 @@
     <col min="19" max="19" width="91.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="81" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="174" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="209.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -33989,7 +34024,7 @@
         <v>895</v>
       </c>
       <c r="E1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F1" t="s">
         <v>901</v>
@@ -34031,7 +34066,7 @@
         <v>900</v>
       </c>
       <c r="V1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -45759,18 +45794,18 @@
         <v>517</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" ref="E137:E178" si="33">CONCATENATE("df = df[np.abs(df.",A137,"-df.",A137,".apply(np.nanmean())&lt;=(3*df.",A137,".apply(nanstd())] ")</f>
+        <f t="shared" ref="E137:E173" si="33">CONCATENATE("df = df[np.abs(df.",A137,"-df.",A137,".apply(np.nanmean())&lt;=(3*df.",A137,".apply(nanstd())] ")</f>
         <v xml:space="preserve">df = df[np.abs(df.ptpm-df.ptpm.apply(np.nanmean())&lt;=(3*df.ptpm.apply(nanstd())] </v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" ref="F137:F178" si="34">CONCATENATE(A137,"_median = df.groupby(['year-month'])[['",A137,"']].apply(np.nanmedian)")</f>
+        <f t="shared" ref="F137:F173" si="34">CONCATENATE(A137,"_median = df.groupby(['year-month'])[['",A137,"']].apply(np.nanmedian)")</f>
         <v>ptpm_median = df.groupby(['year-month'])[['ptpm']].apply(np.nanmedian)</v>
       </c>
       <c r="G137">
         <v>518</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" ref="H137:H178" si="35">CONCATENATE(A137,"_median.name = '", A137,"_median'")</f>
+        <f t="shared" ref="H137:H173" si="35">CONCATENATE(A137,"_median.name = '", A137,"_median'")</f>
         <v>ptpm_median.name = 'ptpm_median'</v>
       </c>
       <c r="I137">
@@ -45780,23 +45815,23 @@
         <v>520</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" ref="K137:K178" si="36">CONCATENATE("df = df.join(",A137,"_median, on=['year-month'])")</f>
+        <f t="shared" ref="K137:K173" si="36">CONCATENATE("df = df.join(",A137,"_median, on=['year-month'])")</f>
         <v>df = df.join(ptpm_median, on=['year-month'])</v>
       </c>
       <c r="L137" t="str">
-        <f t="shared" ref="L137:L178" si="37">CONCATENATE(A137,"_sector_median = df.groupby(['year-month', 'industry'])[['",A137,"']].apply(np.nanmedian)")</f>
+        <f t="shared" ref="L137:L173" si="37">CONCATENATE(A137,"_sector_median = df.groupby(['year-month', 'industry'])[['",A137,"']].apply(np.nanmedian)")</f>
         <v>ptpm_sector_median = df.groupby(['year-month', 'industry'])[['ptpm']].apply(np.nanmedian)</v>
       </c>
       <c r="M137" t="str">
-        <f t="shared" ref="M137:M178" si="38">CONCATENATE(A137,"_sector_median.name = '", A137,"_sector_median'")</f>
+        <f t="shared" ref="M137:M173" si="38">CONCATENATE(A137,"_sector_median.name = '", A137,"_sector_median'")</f>
         <v>ptpm_sector_median.name = 'ptpm_sector_median'</v>
       </c>
       <c r="N137" t="str">
-        <f t="shared" ref="N137:N178" si="39">CONCATENATE("df = df.join(",A137,"_sector_median, on=['year-month', 'industry'])")</f>
+        <f t="shared" ref="N137:N173" si="39">CONCATENATE("df = df.join(",A137,"_sector_median, on=['year-month', 'industry'])")</f>
         <v>df = df.join(ptpm_sector_median, on=['year-month', 'industry'])</v>
       </c>
       <c r="O137" t="str">
-        <f t="shared" ref="O137:O178" si="40">CONCATENATE("if df.groupby(['year-month'])[['",A137,"']].apply(mad).any() == 0:
+        <f t="shared" ref="O137:O173" si="40">CONCATENATE("if df.groupby(['year-month'])[['",A137,"']].apply(mad).any() == 0:
     ",A137,"_mad = df.groupby(['year-month'])[['",A137,"']].apply(meanad)
 else:
     ",A137,"_mad = df.groupby(['year-month'])[['",A137,"']].apply(mad)")</f>
@@ -45806,15 +45841,15 @@
     ptpm_mad = df.groupby(['year-month'])[['ptpm']].apply(mad)</v>
       </c>
       <c r="P137" t="str">
-        <f t="shared" ref="P137:P178" si="41">CONCATENATE(A137,"_mad.name = '", A137,"_mad'")</f>
+        <f t="shared" ref="P137:P173" si="41">CONCATENATE(A137,"_mad.name = '", A137,"_mad'")</f>
         <v>ptpm_mad.name = 'ptpm_mad'</v>
       </c>
       <c r="Q137" t="str">
-        <f t="shared" ref="Q137:Q178" si="42">CONCATENATE("df = df.join(",A137,"_mad, on=['year-month'])")</f>
+        <f t="shared" ref="Q137:Q173" si="42">CONCATENATE("df = df.join(",A137,"_mad, on=['year-month'])")</f>
         <v>df = df.join(ptpm_mad, on=['year-month'])</v>
       </c>
       <c r="R137" t="str">
-        <f t="shared" ref="R137:R178" si="43">CONCATENATE("if df.groupby(['year-month', 'industry'])[['",A137,"']].apply(mad).any() == 0:
+        <f t="shared" ref="R137:R173" si="43">CONCATENATE("if df.groupby(['year-month', 'industry'])[['",A137,"']].apply(mad).any() == 0:
     ",A137,"_sector_mad = df.groupby(['year-month', 'industry'])[['",A137,"']].apply(meanad)
 else:
     ",A137,"_sector_mad = df.groupby(['year-month', 'industry'])[['",A137,"']].apply(mad)")</f>
@@ -45824,19 +45859,19 @@
     ptpm_sector_mad = df.groupby(['year-month', 'industry'])[['ptpm']].apply(mad)</v>
       </c>
       <c r="S137" t="str">
-        <f t="shared" ref="S137:S178" si="44">CONCATENATE(A137,"_sector_mad.name = '", A137,"_sector_mad'")</f>
+        <f t="shared" ref="S137:S173" si="44">CONCATENATE(A137,"_sector_mad.name = '", A137,"_sector_mad'")</f>
         <v>ptpm_sector_mad.name = 'ptpm_sector_mad'</v>
       </c>
       <c r="T137" t="str">
-        <f t="shared" ref="T137:T178" si="45">CONCATENATE("df = df.join(",A137,"_sector_mad, on=['year-month', 'industry'])")</f>
+        <f t="shared" ref="T137:T173" si="45">CONCATENATE("df = df.join(",A137,"_sector_mad, on=['year-month', 'industry'])")</f>
         <v>df = df.join(ptpm_sector_mad, on=['year-month', 'industry'])</v>
       </c>
       <c r="U137" t="str">
-        <f t="shared" ref="U137:U178" si="46">CONCATENATE("df['", A137,"_zscore'] = (df['",A137, "'] - df['", A137,"_median']) / df['",A137,"_mad']")</f>
+        <f t="shared" ref="U137:U173" si="46">CONCATENATE("df['", A137,"_zscore'] = (df['",A137, "'] - df['", A137,"_median']) / df['",A137,"_mad']")</f>
         <v>df['ptpm_zscore'] = (df['ptpm'] - df['ptpm_median']) / df['ptpm_mad']</v>
       </c>
       <c r="V137" t="str">
-        <f t="shared" ref="V137:V178" si="47">CONCATENATE("df['", A137,"_sector_zscore'] = (df['",A137, "'] - df['", A137,"_sector_median']) / df['",A137,"_sector_mad']")</f>
+        <f t="shared" ref="V137:V173" si="47">CONCATENATE("df['", A137,"_sector_zscore'] = (df['",A137, "'] - df['", A137,"_sector_median']) / df['",A137,"_sector_mad']")</f>
         <v>df['ptpm_sector_zscore'] = (df['ptpm'] - df['ptpm_sector_median']) / df['ptpm_sector_mad']</v>
       </c>
     </row>
@@ -47288,7 +47323,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" ref="C154:C192" si="48">CONCATENATE("'",A154,"', ")</f>
+        <f t="shared" ref="C154:C185" si="48">CONCATENATE("'",A154,"', ")</f>
         <v xml:space="preserve">'spcsrc', </v>
       </c>
       <c r="D154">
@@ -49082,620 +49117,146 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="B174">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'ACTUAL_EPS', </v>
-      </c>
-      <c r="D174">
-        <v>665</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">df = df[np.abs(df.ACTUAL_EPS-df.ACTUAL_EPS.apply(np.nanmean())&lt;=(3*df.ACTUAL_EPS.apply(nanstd())] </v>
-      </c>
-      <c r="F174" t="str">
-        <f t="shared" si="34"/>
-        <v>ACTUAL_EPS_median = df.groupby(['year-month'])[['ACTUAL_EPS']].apply(np.nanmedian)</v>
-      </c>
-      <c r="G174">
-        <v>666</v>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" si="35"/>
-        <v>ACTUAL_EPS_median.name = 'ACTUAL_EPS_median'</v>
-      </c>
-      <c r="I174">
-        <v>667</v>
-      </c>
-      <c r="J174">
-        <v>668</v>
-      </c>
-      <c r="K174" t="str">
-        <f t="shared" si="36"/>
-        <v>df = df.join(ACTUAL_EPS_median, on=['year-month'])</v>
-      </c>
-      <c r="L174" t="str">
-        <f t="shared" si="37"/>
-        <v>ACTUAL_EPS_sector_median = df.groupby(['year-month', 'industry'])[['ACTUAL_EPS']].apply(np.nanmedian)</v>
-      </c>
-      <c r="M174" t="str">
-        <f t="shared" si="38"/>
-        <v>ACTUAL_EPS_sector_median.name = 'ACTUAL_EPS_sector_median'</v>
-      </c>
-      <c r="N174" t="str">
-        <f t="shared" si="39"/>
-        <v>df = df.join(ACTUAL_EPS_sector_median, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="O174" t="str">
-        <f t="shared" si="40"/>
-        <v>if df.groupby(['year-month'])[['ACTUAL_EPS']].apply(mad).any() == 0:
-    ACTUAL_EPS_mad = df.groupby(['year-month'])[['ACTUAL_EPS']].apply(meanad)
-else:
-    ACTUAL_EPS_mad = df.groupby(['year-month'])[['ACTUAL_EPS']].apply(mad)</v>
-      </c>
-      <c r="P174" t="str">
-        <f t="shared" si="41"/>
-        <v>ACTUAL_EPS_mad.name = 'ACTUAL_EPS_mad'</v>
-      </c>
-      <c r="Q174" t="str">
-        <f t="shared" si="42"/>
-        <v>df = df.join(ACTUAL_EPS_mad, on=['year-month'])</v>
-      </c>
-      <c r="R174" t="str">
-        <f t="shared" si="43"/>
-        <v>if df.groupby(['year-month', 'industry'])[['ACTUAL_EPS']].apply(mad).any() == 0:
-    ACTUAL_EPS_sector_mad = df.groupby(['year-month', 'industry'])[['ACTUAL_EPS']].apply(meanad)
-else:
-    ACTUAL_EPS_sector_mad = df.groupby(['year-month', 'industry'])[['ACTUAL_EPS']].apply(mad)</v>
-      </c>
-      <c r="S174" t="str">
-        <f t="shared" si="44"/>
-        <v>ACTUAL_EPS_sector_mad.name = 'ACTUAL_EPS_sector_mad'</v>
-      </c>
-      <c r="T174" t="str">
-        <f t="shared" si="45"/>
-        <v>df = df.join(ACTUAL_EPS_sector_mad, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="U174" t="str">
-        <f t="shared" si="46"/>
-        <v>df['ACTUAL_EPS_zscore'] = (df['ACTUAL_EPS'] - df['ACTUAL_EPS_median']) / df['ACTUAL_EPS_mad']</v>
-      </c>
-      <c r="V174" t="str">
-        <f t="shared" si="47"/>
-        <v>df['ACTUAL_EPS_sector_zscore'] = (df['ACTUAL_EPS'] - df['ACTUAL_EPS_sector_median']) / df['ACTUAL_EPS_sector_mad']</v>
+        <v xml:space="preserve">'january', </v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>483</v>
       </c>
       <c r="B175">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'CONSENSUS_EPS', </v>
-      </c>
-      <c r="D175">
-        <v>669</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">df = df[np.abs(df.CONSENSUS_EPS-df.CONSENSUS_EPS.apply(np.nanmean())&lt;=(3*df.CONSENSUS_EPS.apply(nanstd())] </v>
-      </c>
-      <c r="F175" t="str">
-        <f t="shared" si="34"/>
-        <v>CONSENSUS_EPS_median = df.groupby(['year-month'])[['CONSENSUS_EPS']].apply(np.nanmedian)</v>
-      </c>
-      <c r="G175">
-        <v>670</v>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" si="35"/>
-        <v>CONSENSUS_EPS_median.name = 'CONSENSUS_EPS_median'</v>
-      </c>
-      <c r="I175">
-        <v>671</v>
-      </c>
-      <c r="J175">
-        <v>672</v>
-      </c>
-      <c r="K175" t="str">
-        <f t="shared" si="36"/>
-        <v>df = df.join(CONSENSUS_EPS_median, on=['year-month'])</v>
-      </c>
-      <c r="L175" t="str">
-        <f t="shared" si="37"/>
-        <v>CONSENSUS_EPS_sector_median = df.groupby(['year-month', 'industry'])[['CONSENSUS_EPS']].apply(np.nanmedian)</v>
-      </c>
-      <c r="M175" t="str">
-        <f t="shared" si="38"/>
-        <v>CONSENSUS_EPS_sector_median.name = 'CONSENSUS_EPS_sector_median'</v>
-      </c>
-      <c r="N175" t="str">
-        <f t="shared" si="39"/>
-        <v>df = df.join(CONSENSUS_EPS_sector_median, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="O175" t="str">
-        <f t="shared" si="40"/>
-        <v>if df.groupby(['year-month'])[['CONSENSUS_EPS']].apply(mad).any() == 0:
-    CONSENSUS_EPS_mad = df.groupby(['year-month'])[['CONSENSUS_EPS']].apply(meanad)
-else:
-    CONSENSUS_EPS_mad = df.groupby(['year-month'])[['CONSENSUS_EPS']].apply(mad)</v>
-      </c>
-      <c r="P175" t="str">
-        <f t="shared" si="41"/>
-        <v>CONSENSUS_EPS_mad.name = 'CONSENSUS_EPS_mad'</v>
-      </c>
-      <c r="Q175" t="str">
-        <f t="shared" si="42"/>
-        <v>df = df.join(CONSENSUS_EPS_mad, on=['year-month'])</v>
-      </c>
-      <c r="R175" t="str">
-        <f t="shared" si="43"/>
-        <v>if df.groupby(['year-month', 'industry'])[['CONSENSUS_EPS']].apply(mad).any() == 0:
-    CONSENSUS_EPS_sector_mad = df.groupby(['year-month', 'industry'])[['CONSENSUS_EPS']].apply(meanad)
-else:
-    CONSENSUS_EPS_sector_mad = df.groupby(['year-month', 'industry'])[['CONSENSUS_EPS']].apply(mad)</v>
-      </c>
-      <c r="S175" t="str">
-        <f t="shared" si="44"/>
-        <v>CONSENSUS_EPS_sector_mad.name = 'CONSENSUS_EPS_sector_mad'</v>
-      </c>
-      <c r="T175" t="str">
-        <f t="shared" si="45"/>
-        <v>df = df.join(CONSENSUS_EPS_sector_mad, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="U175" t="str">
-        <f t="shared" si="46"/>
-        <v>df['CONSENSUS_EPS_zscore'] = (df['CONSENSUS_EPS'] - df['CONSENSUS_EPS_median']) / df['CONSENSUS_EPS_mad']</v>
-      </c>
-      <c r="V175" t="str">
-        <f t="shared" si="47"/>
-        <v>df['CONSENSUS_EPS_sector_zscore'] = (df['CONSENSUS_EPS'] - df['CONSENSUS_EPS_sector_median']) / df['CONSENSUS_EPS_sector_mad']</v>
+        <v xml:space="preserve">'february', </v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="B176">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'CONSENSUS_STD', </v>
-      </c>
-      <c r="D176">
-        <v>673</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">df = df[np.abs(df.CONSENSUS_STD-df.CONSENSUS_STD.apply(np.nanmean())&lt;=(3*df.CONSENSUS_STD.apply(nanstd())] </v>
-      </c>
-      <c r="F176" t="str">
-        <f t="shared" si="34"/>
-        <v>CONSENSUS_STD_median = df.groupby(['year-month'])[['CONSENSUS_STD']].apply(np.nanmedian)</v>
-      </c>
-      <c r="G176">
-        <v>674</v>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" si="35"/>
-        <v>CONSENSUS_STD_median.name = 'CONSENSUS_STD_median'</v>
-      </c>
-      <c r="I176">
-        <v>675</v>
-      </c>
-      <c r="J176">
-        <v>676</v>
-      </c>
-      <c r="K176" t="str">
-        <f t="shared" si="36"/>
-        <v>df = df.join(CONSENSUS_STD_median, on=['year-month'])</v>
-      </c>
-      <c r="L176" t="str">
-        <f t="shared" si="37"/>
-        <v>CONSENSUS_STD_sector_median = df.groupby(['year-month', 'industry'])[['CONSENSUS_STD']].apply(np.nanmedian)</v>
-      </c>
-      <c r="M176" t="str">
-        <f t="shared" si="38"/>
-        <v>CONSENSUS_STD_sector_median.name = 'CONSENSUS_STD_sector_median'</v>
-      </c>
-      <c r="N176" t="str">
-        <f t="shared" si="39"/>
-        <v>df = df.join(CONSENSUS_STD_sector_median, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="O176" t="str">
-        <f t="shared" si="40"/>
-        <v>if df.groupby(['year-month'])[['CONSENSUS_STD']].apply(mad).any() == 0:
-    CONSENSUS_STD_mad = df.groupby(['year-month'])[['CONSENSUS_STD']].apply(meanad)
-else:
-    CONSENSUS_STD_mad = df.groupby(['year-month'])[['CONSENSUS_STD']].apply(mad)</v>
-      </c>
-      <c r="P176" t="str">
-        <f t="shared" si="41"/>
-        <v>CONSENSUS_STD_mad.name = 'CONSENSUS_STD_mad'</v>
-      </c>
-      <c r="Q176" t="str">
-        <f t="shared" si="42"/>
-        <v>df = df.join(CONSENSUS_STD_mad, on=['year-month'])</v>
-      </c>
-      <c r="R176" t="str">
-        <f t="shared" si="43"/>
-        <v>if df.groupby(['year-month', 'industry'])[['CONSENSUS_STD']].apply(mad).any() == 0:
-    CONSENSUS_STD_sector_mad = df.groupby(['year-month', 'industry'])[['CONSENSUS_STD']].apply(meanad)
-else:
-    CONSENSUS_STD_sector_mad = df.groupby(['year-month', 'industry'])[['CONSENSUS_STD']].apply(mad)</v>
-      </c>
-      <c r="S176" t="str">
-        <f t="shared" si="44"/>
-        <v>CONSENSUS_STD_sector_mad.name = 'CONSENSUS_STD_sector_mad'</v>
-      </c>
-      <c r="T176" t="str">
-        <f t="shared" si="45"/>
-        <v>df = df.join(CONSENSUS_STD_sector_mad, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="U176" t="str">
-        <f t="shared" si="46"/>
-        <v>df['CONSENSUS_STD_zscore'] = (df['CONSENSUS_STD'] - df['CONSENSUS_STD_median']) / df['CONSENSUS_STD_mad']</v>
-      </c>
-      <c r="V176" t="str">
-        <f t="shared" si="47"/>
-        <v>df['CONSENSUS_STD_sector_zscore'] = (df['CONSENSUS_STD'] - df['CONSENSUS_STD_sector_median']) / df['CONSENSUS_STD_sector_mad']</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'march', </v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="B177">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'NUMBER_OF_EST', </v>
-      </c>
-      <c r="D177">
-        <v>677</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">df = df[np.abs(df.NUMBER_OF_EST-df.NUMBER_OF_EST.apply(np.nanmean())&lt;=(3*df.NUMBER_OF_EST.apply(nanstd())] </v>
-      </c>
-      <c r="F177" t="str">
-        <f t="shared" si="34"/>
-        <v>NUMBER_OF_EST_median = df.groupby(['year-month'])[['NUMBER_OF_EST']].apply(np.nanmedian)</v>
-      </c>
-      <c r="G177">
-        <v>678</v>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" si="35"/>
-        <v>NUMBER_OF_EST_median.name = 'NUMBER_OF_EST_median'</v>
-      </c>
-      <c r="I177">
-        <v>679</v>
-      </c>
-      <c r="J177">
-        <v>680</v>
-      </c>
-      <c r="K177" t="str">
-        <f t="shared" si="36"/>
-        <v>df = df.join(NUMBER_OF_EST_median, on=['year-month'])</v>
-      </c>
-      <c r="L177" t="str">
-        <f t="shared" si="37"/>
-        <v>NUMBER_OF_EST_sector_median = df.groupby(['year-month', 'industry'])[['NUMBER_OF_EST']].apply(np.nanmedian)</v>
-      </c>
-      <c r="M177" t="str">
-        <f t="shared" si="38"/>
-        <v>NUMBER_OF_EST_sector_median.name = 'NUMBER_OF_EST_sector_median'</v>
-      </c>
-      <c r="N177" t="str">
-        <f t="shared" si="39"/>
-        <v>df = df.join(NUMBER_OF_EST_sector_median, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="O177" t="str">
-        <f t="shared" si="40"/>
-        <v>if df.groupby(['year-month'])[['NUMBER_OF_EST']].apply(mad).any() == 0:
-    NUMBER_OF_EST_mad = df.groupby(['year-month'])[['NUMBER_OF_EST']].apply(meanad)
-else:
-    NUMBER_OF_EST_mad = df.groupby(['year-month'])[['NUMBER_OF_EST']].apply(mad)</v>
-      </c>
-      <c r="P177" t="str">
-        <f t="shared" si="41"/>
-        <v>NUMBER_OF_EST_mad.name = 'NUMBER_OF_EST_mad'</v>
-      </c>
-      <c r="Q177" t="str">
-        <f t="shared" si="42"/>
-        <v>df = df.join(NUMBER_OF_EST_mad, on=['year-month'])</v>
-      </c>
-      <c r="R177" t="str">
-        <f t="shared" si="43"/>
-        <v>if df.groupby(['year-month', 'industry'])[['NUMBER_OF_EST']].apply(mad).any() == 0:
-    NUMBER_OF_EST_sector_mad = df.groupby(['year-month', 'industry'])[['NUMBER_OF_EST']].apply(meanad)
-else:
-    NUMBER_OF_EST_sector_mad = df.groupby(['year-month', 'industry'])[['NUMBER_OF_EST']].apply(mad)</v>
-      </c>
-      <c r="S177" t="str">
-        <f t="shared" si="44"/>
-        <v>NUMBER_OF_EST_sector_mad.name = 'NUMBER_OF_EST_sector_mad'</v>
-      </c>
-      <c r="T177" t="str">
-        <f t="shared" si="45"/>
-        <v>df = df.join(NUMBER_OF_EST_sector_mad, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="U177" t="str">
-        <f t="shared" si="46"/>
-        <v>df['NUMBER_OF_EST_zscore'] = (df['NUMBER_OF_EST'] - df['NUMBER_OF_EST_median']) / df['NUMBER_OF_EST_mad']</v>
-      </c>
-      <c r="V177" t="str">
-        <f t="shared" si="47"/>
-        <v>df['NUMBER_OF_EST_sector_zscore'] = (df['NUMBER_OF_EST'] - df['NUMBER_OF_EST_sector_median']) / df['NUMBER_OF_EST_sector_mad']</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'april', </v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="B178">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'SURPRISE_PCT', </v>
-      </c>
-      <c r="D178">
-        <v>681</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">df = df[np.abs(df.SURPRISE_PCT-df.SURPRISE_PCT.apply(np.nanmean())&lt;=(3*df.SURPRISE_PCT.apply(nanstd())] </v>
-      </c>
-      <c r="F178" t="str">
-        <f t="shared" si="34"/>
-        <v>SURPRISE_PCT_median = df.groupby(['year-month'])[['SURPRISE_PCT']].apply(np.nanmedian)</v>
-      </c>
-      <c r="G178">
-        <v>682</v>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" si="35"/>
-        <v>SURPRISE_PCT_median.name = 'SURPRISE_PCT_median'</v>
-      </c>
-      <c r="I178">
-        <v>683</v>
-      </c>
-      <c r="J178">
-        <v>684</v>
-      </c>
-      <c r="K178" t="str">
-        <f t="shared" si="36"/>
-        <v>df = df.join(SURPRISE_PCT_median, on=['year-month'])</v>
-      </c>
-      <c r="L178" t="str">
-        <f t="shared" si="37"/>
-        <v>SURPRISE_PCT_sector_median = df.groupby(['year-month', 'industry'])[['SURPRISE_PCT']].apply(np.nanmedian)</v>
-      </c>
-      <c r="M178" t="str">
-        <f t="shared" si="38"/>
-        <v>SURPRISE_PCT_sector_median.name = 'SURPRISE_PCT_sector_median'</v>
-      </c>
-      <c r="N178" t="str">
-        <f t="shared" si="39"/>
-        <v>df = df.join(SURPRISE_PCT_sector_median, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="O178" t="str">
-        <f t="shared" si="40"/>
-        <v>if df.groupby(['year-month'])[['SURPRISE_PCT']].apply(mad).any() == 0:
-    SURPRISE_PCT_mad = df.groupby(['year-month'])[['SURPRISE_PCT']].apply(meanad)
-else:
-    SURPRISE_PCT_mad = df.groupby(['year-month'])[['SURPRISE_PCT']].apply(mad)</v>
-      </c>
-      <c r="P178" t="str">
-        <f t="shared" si="41"/>
-        <v>SURPRISE_PCT_mad.name = 'SURPRISE_PCT_mad'</v>
-      </c>
-      <c r="Q178" t="str">
-        <f t="shared" si="42"/>
-        <v>df = df.join(SURPRISE_PCT_mad, on=['year-month'])</v>
-      </c>
-      <c r="R178" t="str">
-        <f t="shared" si="43"/>
-        <v>if df.groupby(['year-month', 'industry'])[['SURPRISE_PCT']].apply(mad).any() == 0:
-    SURPRISE_PCT_sector_mad = df.groupby(['year-month', 'industry'])[['SURPRISE_PCT']].apply(meanad)
-else:
-    SURPRISE_PCT_sector_mad = df.groupby(['year-month', 'industry'])[['SURPRISE_PCT']].apply(mad)</v>
-      </c>
-      <c r="S178" t="str">
-        <f t="shared" si="44"/>
-        <v>SURPRISE_PCT_sector_mad.name = 'SURPRISE_PCT_sector_mad'</v>
-      </c>
-      <c r="T178" t="str">
-        <f t="shared" si="45"/>
-        <v>df = df.join(SURPRISE_PCT_sector_mad, on=['year-month', 'industry'])</v>
-      </c>
-      <c r="U178" t="str">
-        <f t="shared" si="46"/>
-        <v>df['SURPRISE_PCT_zscore'] = (df['SURPRISE_PCT'] - df['SURPRISE_PCT_median']) / df['SURPRISE_PCT_mad']</v>
-      </c>
-      <c r="V178" t="str">
-        <f t="shared" si="47"/>
-        <v>df['SURPRISE_PCT_sector_zscore'] = (df['SURPRISE_PCT'] - df['SURPRISE_PCT_sector_median']) / df['SURPRISE_PCT_sector_mad']</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'may', </v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="B179">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'sic', </v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'june', </v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B180">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'january', </v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'july', </v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B181">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'february', </v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'august', </v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B182">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'march', </v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'september', </v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B183">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'april', </v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'october', </v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B184">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'may', </v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">'november', </v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="B185">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">'june', </v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>482</v>
-      </c>
-      <c r="B186">
-        <v>172</v>
-      </c>
-      <c r="C186" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">'july', </v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>476</v>
-      </c>
-      <c r="B187">
-        <v>173</v>
-      </c>
-      <c r="C187" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">'august', </v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>475</v>
-      </c>
-      <c r="B188">
-        <v>174</v>
-      </c>
-      <c r="C188" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">'september', </v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>473</v>
-      </c>
-      <c r="B189">
-        <v>175</v>
-      </c>
-      <c r="C189" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">'october', </v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>474</v>
-      </c>
-      <c r="B190">
-        <v>176</v>
-      </c>
-      <c r="C190" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">'november', </v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>541</v>
-      </c>
-      <c r="B191">
-        <v>177</v>
-      </c>
-      <c r="C191" t="str">
-        <f t="shared" si="48"/>
         <v xml:space="preserve">'december', </v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>379</v>
-      </c>
-      <c r="B192">
-        <v>187</v>
-      </c>
-      <c r="C192" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">'USFIRM', </v>
       </c>
     </row>
   </sheetData>
